--- a/Final_Spots_Updated_Modified_MockData.xlsx
+++ b/Final_Spots_Updated_Modified_MockData.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Surya/Desktop/FoundationsOfAI/graduation_path_planner/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A4BD86-C05D-984D-805D-5076ABD7AB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="318">
   <si>
     <t>Class ID</t>
   </si>
@@ -965,13 +971,16 @@
   </si>
   <si>
     <t>Systems1</t>
+  </si>
+  <si>
+    <t>Rajgopal Venkat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,13 +1043,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1078,7 +1095,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1112,6 +1129,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1146,9 +1164,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1321,14 +1340,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1395,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2.11120138750365</v>
+        <v>2.1112013875036499</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1413,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1430,13 +1451,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>3.609699926652121</v>
+        <v>3.6096999266521208</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L3">
         <v>62</v>
@@ -1448,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1465,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>3.661158986713485</v>
+        <v>3.6611589867134851</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1483,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1.357231700756072</v>
+        <v>1.3572317007560719</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1518,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1535,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2.793150861325447</v>
+        <v>2.7931508613254472</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1553,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1570,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>2.146804891035809</v>
+        <v>2.1468048910358091</v>
       </c>
       <c r="K7">
         <v>3.65</v>
@@ -1585,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1602,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>3.828177417388786</v>
+        <v>3.8281774173887859</v>
       </c>
       <c r="K8">
         <v>3.07</v>
@@ -1617,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1649,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="F10">
-        <v>4.552523021344459</v>
+        <v>4.5525230213444594</v>
       </c>
       <c r="K10">
         <v>1.89</v>
@@ -1681,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1698,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>3.55279577323027</v>
+        <v>3.5527957732302702</v>
       </c>
       <c r="K11">
         <v>2.72</v>
@@ -1713,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1730,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>2.843881646540513</v>
+        <v>2.8438816465405128</v>
       </c>
       <c r="K12">
         <v>2.64</v>
@@ -1745,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1762,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>2.11120138750365</v>
+        <v>2.1112013875036499</v>
       </c>
       <c r="K13">
         <v>2.25</v>
@@ -1777,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1829,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>3.86123999339251</v>
+        <v>3.8612399933925099</v>
       </c>
       <c r="G15" t="s">
         <v>166</v>
@@ -1847,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1864,13 +1885,13 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>3.252086712687887</v>
+        <v>3.2520867126878872</v>
       </c>
       <c r="G16" t="s">
         <v>166</v>
       </c>
       <c r="K16">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="L16">
         <v>51</v>
@@ -1882,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1899,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>2.726901329783466</v>
+        <v>2.7269013297834661</v>
       </c>
       <c r="G17" t="s">
         <v>166</v>
@@ -1917,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1934,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>4.900607576727028</v>
+        <v>4.9006075767270278</v>
       </c>
       <c r="G18" t="s">
         <v>165</v>
@@ -1955,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1972,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <v>3.252086712687887</v>
+        <v>3.2520867126878872</v>
       </c>
       <c r="G19" t="s">
         <v>165</v>
@@ -1993,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2010,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>3.661158986713485</v>
+        <v>3.6611589867134851</v>
       </c>
       <c r="G20" t="s">
         <v>165</v>
@@ -2031,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2057,7 +2078,7 @@
         <v>166</v>
       </c>
       <c r="K21">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L21">
         <v>60</v>
@@ -2069,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2086,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="F22">
-        <v>3.609699926652121</v>
+        <v>3.6096999266521208</v>
       </c>
       <c r="G22" t="s">
         <v>165</v>
@@ -2107,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2145,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2162,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="F24">
-        <v>2.729684424533842</v>
+        <v>2.7296844245338421</v>
       </c>
       <c r="G24" t="s">
         <v>165</v>
@@ -2183,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2200,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>2.722628486140453</v>
+        <v>2.7226284861404531</v>
       </c>
       <c r="G25" t="s">
         <v>167</v>
@@ -2218,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2241,7 +2262,7 @@
         <v>167</v>
       </c>
       <c r="K26">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="L26">
         <v>66</v>
@@ -2253,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2270,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <v>2.146804891035809</v>
+        <v>2.1468048910358091</v>
       </c>
       <c r="G27" t="s">
         <v>167</v>
@@ -2288,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2311,7 +2332,7 @@
         <v>167</v>
       </c>
       <c r="K28">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L28">
         <v>70</v>
@@ -2323,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2340,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="F29">
-        <v>3.252086712687887</v>
+        <v>3.2520867126878872</v>
       </c>
       <c r="G29" t="s">
         <v>167</v>
@@ -2358,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2375,13 +2396,13 @@
         <v>4</v>
       </c>
       <c r="F30">
-        <v>2.481368104010783</v>
+        <v>2.4813681040107829</v>
       </c>
       <c r="G30" t="s">
         <v>167</v>
       </c>
       <c r="K30">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="L30">
         <v>61</v>
@@ -2393,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2410,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="F31">
-        <v>1.357231700756072</v>
+        <v>1.3572317007560719</v>
       </c>
       <c r="G31" t="s">
         <v>167</v>
@@ -2428,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2445,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="F32">
-        <v>3.835134946412663</v>
+        <v>3.8351349464126629</v>
       </c>
       <c r="G32" t="s">
         <v>167</v>
@@ -2463,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2480,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="F33">
-        <v>1.357231700756072</v>
+        <v>1.3572317007560719</v>
       </c>
       <c r="G33" t="s">
         <v>167</v>
@@ -2498,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2515,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="F34">
-        <v>3.252086712687887</v>
+        <v>3.2520867126878872</v>
       </c>
       <c r="G34" t="s">
         <v>170</v>
@@ -2533,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2550,7 +2571,7 @@
         <v>4</v>
       </c>
       <c r="F35">
-        <v>2.722628486140453</v>
+        <v>2.7226284861404531</v>
       </c>
       <c r="G35" t="s">
         <v>170</v>
@@ -2568,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2585,7 +2606,7 @@
         <v>4</v>
       </c>
       <c r="F36">
-        <v>3.828177417388786</v>
+        <v>3.8281774173887859</v>
       </c>
       <c r="G36" t="s">
         <v>170</v>
@@ -2603,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2620,7 +2641,7 @@
         <v>4</v>
       </c>
       <c r="F37">
-        <v>4.809447235235724</v>
+        <v>4.8094472352357238</v>
       </c>
       <c r="G37" t="s">
         <v>170</v>
@@ -2638,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2655,7 +2676,7 @@
         <v>4</v>
       </c>
       <c r="F38">
-        <v>4.114817993205786</v>
+        <v>4.1148179932057856</v>
       </c>
       <c r="G38" t="s">
         <v>170</v>
@@ -2673,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2690,7 +2711,7 @@
         <v>4</v>
       </c>
       <c r="F39">
-        <v>4.114817993205786</v>
+        <v>4.1148179932057856</v>
       </c>
       <c r="G39" t="s">
         <v>170</v>
@@ -2708,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2725,7 +2746,7 @@
         <v>4</v>
       </c>
       <c r="F40">
-        <v>2.326331851201893</v>
+        <v>2.3263318512018931</v>
       </c>
       <c r="G40" t="s">
         <v>170</v>
@@ -2743,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2760,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="F41">
-        <v>2.146804891035809</v>
+        <v>2.1468048910358091</v>
       </c>
       <c r="G41" t="s">
         <v>166</v>
@@ -2778,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2795,7 +2816,7 @@
         <v>4</v>
       </c>
       <c r="F42">
-        <v>2.11120138750365</v>
+        <v>2.1112013875036499</v>
       </c>
       <c r="G42" t="s">
         <v>166</v>
@@ -2813,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2830,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="F43">
-        <v>4.900607576727028</v>
+        <v>4.9006075767270278</v>
       </c>
       <c r="K43">
         <v>3.21</v>
@@ -2851,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2889,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2906,7 +2927,7 @@
         <v>4</v>
       </c>
       <c r="F45">
-        <v>3.719859250388527</v>
+        <v>3.7198592503885268</v>
       </c>
       <c r="K45">
         <v>3.91</v>
@@ -2927,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2944,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="F46">
-        <v>4.269333047082918</v>
+        <v>4.2693330470829176</v>
       </c>
       <c r="G46" t="s">
         <v>171</v>
@@ -2968,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2985,13 +3006,13 @@
         <v>4</v>
       </c>
       <c r="F47">
-        <v>2.489925711330417</v>
+        <v>2.4899257113304172</v>
       </c>
       <c r="G47" t="s">
         <v>171</v>
       </c>
       <c r="K47">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="L47">
         <v>64</v>
@@ -3009,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -3026,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="F48">
-        <v>4.22122923147537</v>
+        <v>4.2212292314753697</v>
       </c>
       <c r="G48" t="s">
         <v>171</v>
@@ -3050,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3082,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -3099,7 +3120,7 @@
         <v>4</v>
       </c>
       <c r="F50">
-        <v>2.770806865149683</v>
+        <v>2.7708068651496829</v>
       </c>
       <c r="K50">
         <v>3.88</v>
@@ -3114,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -3146,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -3163,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="F52">
-        <v>3.55279577323027</v>
+        <v>3.5527957732302702</v>
       </c>
       <c r="K52">
         <v>2.91</v>
@@ -3178,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -3195,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="F53">
-        <v>2.590124446399869</v>
+        <v>2.5901244463998689</v>
       </c>
       <c r="K53">
         <v>3.15</v>
@@ -3210,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -3227,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="F54">
-        <v>4.552523021344459</v>
+        <v>4.5525230213444594</v>
       </c>
       <c r="K54">
         <v>3.79</v>
@@ -3242,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -3259,7 +3280,7 @@
         <v>4</v>
       </c>
       <c r="F55">
-        <v>2.703021098964484</v>
+        <v>2.7030210989644838</v>
       </c>
       <c r="K55">
         <v>3.4</v>
@@ -3274,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -3291,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="F56">
-        <v>2.489925711330417</v>
+        <v>2.4899257113304172</v>
       </c>
       <c r="K56">
         <v>3.54</v>
@@ -3306,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -3323,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="F57">
-        <v>4.900607576727028</v>
+        <v>4.9006075767270278</v>
       </c>
       <c r="K57">
         <v>3.25</v>
@@ -3338,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -3355,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="F58">
-        <v>2.590124446399869</v>
+        <v>2.5901244463998689</v>
       </c>
       <c r="K58">
         <v>1.46</v>
@@ -3370,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -3387,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="F59">
-        <v>3.86123999339251</v>
+        <v>3.8612399933925099</v>
       </c>
       <c r="K59">
         <v>4.75</v>
@@ -3402,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -3440,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -3457,7 +3478,7 @@
         <v>5</v>
       </c>
       <c r="F61">
-        <v>3.609699926652121</v>
+        <v>3.6096999266521208</v>
       </c>
       <c r="G61" t="s">
         <v>165</v>
@@ -3478,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="F62">
-        <v>3.661158986713485</v>
+        <v>3.6611589867134851</v>
       </c>
       <c r="G62" t="s">
         <v>165</v>
@@ -3516,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -3533,13 +3554,13 @@
         <v>4</v>
       </c>
       <c r="F63">
-        <v>2.793150861325447</v>
+        <v>2.7931508613254472</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="L63">
         <v>49</v>
@@ -3551,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -3568,13 +3589,13 @@
         <v>4</v>
       </c>
       <c r="F64">
-        <v>4.227231493770558</v>
+        <v>4.2272314937705584</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="L64">
         <v>61</v>
@@ -3586,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3621,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -3638,13 +3659,13 @@
         <v>4</v>
       </c>
       <c r="F66">
-        <v>2.703021098964484</v>
+        <v>2.7030210989644838</v>
       </c>
       <c r="G66" t="s">
         <v>304</v>
       </c>
       <c r="K66">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="L66">
         <v>58</v>
@@ -3656,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3673,7 +3694,7 @@
         <v>4</v>
       </c>
       <c r="F67">
-        <v>3.86123999339251</v>
+        <v>3.8612399933925099</v>
       </c>
       <c r="G67" t="s">
         <v>304</v>
@@ -3691,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -3708,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="F68">
-        <v>2.793150861325447</v>
+        <v>2.7931508613254472</v>
       </c>
       <c r="G68" t="s">
         <v>304</v>
@@ -3726,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -3743,7 +3764,7 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <v>3.55279577323027</v>
+        <v>3.5527957732302702</v>
       </c>
       <c r="K69">
         <v>1.73</v>
@@ -3758,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -3775,7 +3796,7 @@
         <v>5</v>
       </c>
       <c r="F70">
-        <v>2.481368104010783</v>
+        <v>2.4813681040107829</v>
       </c>
       <c r="K70">
         <v>3.28</v>
@@ -3790,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -3810,7 +3831,7 @@
         <v>2.424373795860836</v>
       </c>
       <c r="K71">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="L71">
         <v>65</v>
@@ -3822,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -3839,7 +3860,7 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <v>3.297858814169442</v>
+        <v>3.2978588141694418</v>
       </c>
       <c r="K72">
         <v>1.67</v>
@@ -3854,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -3871,10 +3892,10 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>3.832605476995019</v>
+        <v>3.8326054769950191</v>
       </c>
       <c r="K73">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="L73">
         <v>56</v>
@@ -3886,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -3903,7 +3924,7 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <v>3.55279577323027</v>
+        <v>3.5527957732302702</v>
       </c>
       <c r="K74">
         <v>2.84</v>
@@ -3918,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -3950,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3961,13 +3982,13 @@
         <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="E76">
         <v>4</v>
       </c>
       <c r="F76">
-        <v>3.023422816107634</v>
+        <v>5</v>
       </c>
       <c r="G76" t="s">
         <v>170</v>
@@ -3985,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -4002,7 +4023,7 @@
         <v>4</v>
       </c>
       <c r="F77">
-        <v>2.146804891035809</v>
+        <v>2.1468048910358091</v>
       </c>
       <c r="G77" t="s">
         <v>170</v>
@@ -4020,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -4037,7 +4058,7 @@
         <v>4</v>
       </c>
       <c r="F78">
-        <v>3.719859250388527</v>
+        <v>3.7198592503885268</v>
       </c>
       <c r="G78" t="s">
         <v>168</v>
@@ -4058,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -4075,7 +4096,7 @@
         <v>4</v>
       </c>
       <c r="F79">
-        <v>2.590124446399869</v>
+        <v>2.5901244463998689</v>
       </c>
       <c r="G79" t="s">
         <v>168</v>
@@ -4096,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -4134,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -4151,7 +4172,7 @@
         <v>4</v>
       </c>
       <c r="F81">
-        <v>3.55279577323027</v>
+        <v>3.5527957732302702</v>
       </c>
       <c r="G81" t="s">
         <v>170</v>
@@ -4175,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -4192,7 +4213,7 @@
         <v>4</v>
       </c>
       <c r="F82">
-        <v>4.22122923147537</v>
+        <v>4.2212292314753697</v>
       </c>
       <c r="G82" t="s">
         <v>170</v>
@@ -4216,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -4233,13 +4254,13 @@
         <v>4</v>
       </c>
       <c r="F83">
-        <v>2.11120138750365</v>
+        <v>2.1112013875036499</v>
       </c>
       <c r="G83" t="s">
         <v>170</v>
       </c>
       <c r="K83">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L83">
         <v>52</v>
@@ -4257,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -4274,7 +4295,7 @@
         <v>4</v>
       </c>
       <c r="F84">
-        <v>2.526851040732241</v>
+        <v>2.5268510407322409</v>
       </c>
       <c r="G84" t="s">
         <v>170</v>
@@ -4292,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -4315,7 +4336,7 @@
         <v>170</v>
       </c>
       <c r="K85">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L85">
         <v>58</v>
@@ -4327,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -4350,7 +4371,7 @@
         <v>170</v>
       </c>
       <c r="K86">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="L86">
         <v>65</v>
@@ -4362,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -4379,7 +4400,7 @@
         <v>4</v>
       </c>
       <c r="F87">
-        <v>2.702586009344002</v>
+        <v>2.7025860093440022</v>
       </c>
       <c r="G87" t="s">
         <v>170</v>
@@ -4403,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -4420,7 +4441,7 @@
         <v>4</v>
       </c>
       <c r="F88">
-        <v>2.146804891035809</v>
+        <v>2.1468048910358091</v>
       </c>
       <c r="G88" t="s">
         <v>170</v>
@@ -4444,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -4461,7 +4482,7 @@
         <v>4</v>
       </c>
       <c r="F89">
-        <v>2.11120138750365</v>
+        <v>2.1112013875036499</v>
       </c>
       <c r="G89" t="s">
         <v>170</v>
@@ -4482,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -4499,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="F90">
-        <v>4.552523021344459</v>
+        <v>4.5525230213444594</v>
       </c>
       <c r="G90" t="s">
         <v>170</v>
@@ -4520,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -4537,7 +4558,7 @@
         <v>4</v>
       </c>
       <c r="F91">
-        <v>2.702586009344002</v>
+        <v>2.7025860093440022</v>
       </c>
       <c r="G91" t="s">
         <v>170</v>
@@ -4558,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -4575,7 +4596,7 @@
         <v>4</v>
       </c>
       <c r="F92">
-        <v>3.297858814169442</v>
+        <v>3.2978588141694418</v>
       </c>
       <c r="G92" t="s">
         <v>187</v>
@@ -4593,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -4610,7 +4631,7 @@
         <v>4</v>
       </c>
       <c r="F93">
-        <v>2.722628486140453</v>
+        <v>2.7226284861404531</v>
       </c>
       <c r="G93" t="s">
         <v>187</v>
@@ -4628,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4645,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="F94">
-        <v>4.552523021344459</v>
+        <v>4.5525230213444594</v>
       </c>
       <c r="G94" t="s">
         <v>187</v>
@@ -4663,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4680,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="F95">
-        <v>2.703021098964484</v>
+        <v>2.7030210989644838</v>
       </c>
       <c r="G95" t="s">
         <v>187</v>
@@ -4698,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4715,7 +4736,7 @@
         <v>4</v>
       </c>
       <c r="F96">
-        <v>3.832605476995019</v>
+        <v>3.8326054769950191</v>
       </c>
       <c r="G96" t="s">
         <v>165</v>
@@ -4739,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -4756,7 +4777,7 @@
         <v>4</v>
       </c>
       <c r="F97">
-        <v>2.489925711330417</v>
+        <v>2.4899257113304172</v>
       </c>
       <c r="G97" t="s">
         <v>165</v>
@@ -4780,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -4797,7 +4818,7 @@
         <v>4</v>
       </c>
       <c r="F98">
-        <v>3.543812754020692</v>
+        <v>3.5438127540206921</v>
       </c>
       <c r="G98" t="s">
         <v>165</v>
@@ -4809,7 +4830,7 @@
         <v>180</v>
       </c>
       <c r="K98">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L98">
         <v>60</v>
@@ -4821,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -4838,7 +4859,7 @@
         <v>4</v>
       </c>
       <c r="F99">
-        <v>4.227231493770558</v>
+        <v>4.2272314937705584</v>
       </c>
       <c r="G99" t="s">
         <v>193</v>
@@ -4859,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -4897,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4914,7 +4935,7 @@
         <v>4</v>
       </c>
       <c r="F101">
-        <v>4.114817993205786</v>
+        <v>4.1148179932057856</v>
       </c>
       <c r="G101" t="s">
         <v>193</v>
@@ -4935,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -4952,7 +4973,7 @@
         <v>4</v>
       </c>
       <c r="F102">
-        <v>2.703021098964484</v>
+        <v>2.7030210989644838</v>
       </c>
       <c r="G102" t="s">
         <v>172</v>
@@ -4970,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -4987,7 +5008,7 @@
         <v>4</v>
       </c>
       <c r="F103">
-        <v>2.722628486140453</v>
+        <v>2.7226284861404531</v>
       </c>
       <c r="G103" t="s">
         <v>172</v>
@@ -5005,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -5022,7 +5043,7 @@
         <v>4</v>
       </c>
       <c r="F104">
-        <v>4.22122923147537</v>
+        <v>4.2212292314753697</v>
       </c>
       <c r="G104" t="s">
         <v>172</v>
@@ -5040,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -5057,13 +5078,13 @@
         <v>4</v>
       </c>
       <c r="F105">
-        <v>3.828177417388786</v>
+        <v>3.8281774173887859</v>
       </c>
       <c r="G105" t="s">
         <v>172</v>
       </c>
       <c r="K105">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="L105">
         <v>61</v>
@@ -5075,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -5110,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -5127,7 +5148,7 @@
         <v>4</v>
       </c>
       <c r="F107">
-        <v>4.065843866353065</v>
+        <v>4.0658438663530649</v>
       </c>
       <c r="G107" t="s">
         <v>169</v>
@@ -5145,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -5168,7 +5189,7 @@
         <v>169</v>
       </c>
       <c r="K108">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="L108">
         <v>68</v>
@@ -5180,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -5197,7 +5218,7 @@
         <v>4</v>
       </c>
       <c r="F109">
-        <v>3.719859250388527</v>
+        <v>3.7198592503885268</v>
       </c>
       <c r="G109" t="s">
         <v>169</v>
@@ -5215,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -5232,7 +5253,7 @@
         <v>4</v>
       </c>
       <c r="F110">
-        <v>4.900607576727028</v>
+        <v>4.9006075767270278</v>
       </c>
       <c r="G110" t="s">
         <v>169</v>
@@ -5256,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -5297,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -5314,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="F112">
-        <v>2.11120138750365</v>
+        <v>2.1112013875036499</v>
       </c>
       <c r="G112" t="s">
         <v>169</v>
@@ -5338,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -5373,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -5390,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="F114">
-        <v>3.55279577323027</v>
+        <v>3.5527957732302702</v>
       </c>
       <c r="G114" t="s">
         <v>170</v>
@@ -5408,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -5425,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="F115">
-        <v>2.722628486140453</v>
+        <v>2.7226284861404531</v>
       </c>
       <c r="G115" t="s">
         <v>170</v>
@@ -5443,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -5460,13 +5481,13 @@
         <v>4</v>
       </c>
       <c r="F116">
-        <v>4.065843866353065</v>
+        <v>4.0658438663530649</v>
       </c>
       <c r="G116" t="s">
         <v>170</v>
       </c>
       <c r="K116">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="L116">
         <v>64</v>
@@ -5478,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -5495,7 +5516,7 @@
         <v>4</v>
       </c>
       <c r="F117">
-        <v>3.86123999339251</v>
+        <v>3.8612399933925099</v>
       </c>
       <c r="G117" t="s">
         <v>168</v>
@@ -5513,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -5530,7 +5551,7 @@
         <v>4</v>
       </c>
       <c r="F118">
-        <v>3.543812754020692</v>
+        <v>3.5438127540206921</v>
       </c>
       <c r="G118" t="s">
         <v>168</v>
@@ -5548,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -5571,7 +5592,7 @@
         <v>170</v>
       </c>
       <c r="K119">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="L119">
         <v>54</v>
@@ -5583,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -5600,7 +5621,7 @@
         <v>4</v>
       </c>
       <c r="F120">
-        <v>3.609699926652121</v>
+        <v>3.6096999266521208</v>
       </c>
       <c r="G120" t="s">
         <v>170</v>
@@ -5618,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -5641,7 +5662,7 @@
         <v>170</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L121">
         <v>69</v>
@@ -5653,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -5688,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -5705,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="F123">
-        <v>2.703021098964484</v>
+        <v>2.7030210989644838</v>
       </c>
       <c r="G123" t="s">
         <v>170</v>
@@ -5723,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -5740,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="F124">
-        <v>3.828177417388786</v>
+        <v>3.8281774173887859</v>
       </c>
       <c r="G124" t="s">
         <v>170</v>
@@ -5758,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -5781,7 +5802,7 @@
         <v>167</v>
       </c>
       <c r="K125">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L125">
         <v>52</v>
@@ -5793,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -5810,7 +5831,7 @@
         <v>4</v>
       </c>
       <c r="F126">
-        <v>3.835134946412663</v>
+        <v>3.8351349464126629</v>
       </c>
       <c r="G126" t="s">
         <v>167</v>
@@ -5828,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -5863,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -5898,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -5915,7 +5936,7 @@
         <v>4</v>
       </c>
       <c r="F129">
-        <v>2.770806865149683</v>
+        <v>2.7708068651496829</v>
       </c>
       <c r="K129">
         <v>2.89</v>
@@ -5930,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -5947,7 +5968,7 @@
         <v>4</v>
       </c>
       <c r="F130">
-        <v>4.552523021344459</v>
+        <v>4.5525230213444594</v>
       </c>
       <c r="K130">
         <v>2.02</v>
@@ -5962,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -5979,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="F131">
-        <v>3.010462877430018</v>
+        <v>3.0104628774300179</v>
       </c>
       <c r="G131" t="s">
         <v>171</v>
@@ -5988,7 +6009,7 @@
         <v>309</v>
       </c>
       <c r="K131">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L131">
         <v>61</v>
@@ -6000,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -6017,7 +6038,7 @@
         <v>4</v>
       </c>
       <c r="F132">
-        <v>4.269333047082918</v>
+        <v>4.2693330470829176</v>
       </c>
       <c r="G132" t="s">
         <v>171</v>
@@ -6038,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -6055,7 +6076,7 @@
         <v>4</v>
       </c>
       <c r="F133">
-        <v>2.843881646540513</v>
+        <v>2.8438816465405128</v>
       </c>
       <c r="G133" t="s">
         <v>171</v>
@@ -6076,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -6114,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -6152,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -6178,7 +6199,7 @@
         <v>167</v>
       </c>
       <c r="K136">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="L136">
         <v>56</v>
@@ -6190,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -6228,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -6245,7 +6266,7 @@
         <v>4</v>
       </c>
       <c r="F138">
-        <v>2.11120138750365</v>
+        <v>2.1112013875036499</v>
       </c>
       <c r="G138" t="s">
         <v>170</v>
@@ -6263,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -6280,7 +6301,7 @@
         <v>4</v>
       </c>
       <c r="F139">
-        <v>2.526851040732241</v>
+        <v>2.5268510407322409</v>
       </c>
       <c r="G139" t="s">
         <v>170</v>
@@ -6298,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -6315,7 +6336,7 @@
         <v>4</v>
       </c>
       <c r="F140">
-        <v>2.590124446399869</v>
+        <v>2.5901244463998689</v>
       </c>
       <c r="G140" t="s">
         <v>170</v>
@@ -6333,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -6350,7 +6371,7 @@
         <v>4</v>
       </c>
       <c r="F141">
-        <v>1.357231700756072</v>
+        <v>1.3572317007560719</v>
       </c>
       <c r="G141" t="s">
         <v>306</v>
@@ -6359,7 +6380,7 @@
         <v>209</v>
       </c>
       <c r="K141">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L141">
         <v>60</v>
@@ -6371,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -6388,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="F142">
-        <v>3.661158986713485</v>
+        <v>3.6611589867134851</v>
       </c>
       <c r="G142" t="s">
         <v>306</v>
@@ -6409,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -6426,7 +6447,7 @@
         <v>4</v>
       </c>
       <c r="F143">
-        <v>2.526851040732241</v>
+        <v>2.5268510407322409</v>
       </c>
       <c r="G143" t="s">
         <v>171</v>
@@ -6444,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -6461,7 +6482,7 @@
         <v>4</v>
       </c>
       <c r="F144">
-        <v>3.86123999339251</v>
+        <v>3.8612399933925099</v>
       </c>
       <c r="G144" t="s">
         <v>171</v>
@@ -6479,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -6511,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -6528,7 +6549,7 @@
         <v>4</v>
       </c>
       <c r="F146">
-        <v>3.661158986713485</v>
+        <v>3.6611589867134851</v>
       </c>
       <c r="K146">
         <v>1.9</v>
@@ -6543,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -6575,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -6592,7 +6613,7 @@
         <v>4</v>
       </c>
       <c r="F148">
-        <v>2.489925711330417</v>
+        <v>2.4899257113304172</v>
       </c>
       <c r="K148">
         <v>4.05</v>
